--- a/theo/outputs/NEE/correlations.xlsx
+++ b/theo/outputs/NEE/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.2194881768027999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1015871071635999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.08606206774749578</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.6144046186041705</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.2178688990355343</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.02898360999002619</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02886178330925682</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.09575520147626977</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.09534472790141353</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.02898360999002619</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02886178330925682</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.09575520147626977</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.09534472790141353</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.000187085863569559</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.0382377914147085</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.00557542208751489</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.2194881768027999</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.03141337196896672</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.07089314470713635</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.4738226081828076</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>-0.0877784581481935</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.1413188072818905</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.1411387404147719</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.8178176493473892</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.8155611125267151</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.1194985902080331</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.119670411779459</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.7815458385452544</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.7792634986594504</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.05992866941501481</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.05721343396768132</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.0104236193200804</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1015871071635999</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.03141337196896672</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8737539624306323</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.02853630728950319</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.04203957114148888</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.1145392421952781</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.1157288464566939</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.0032191588521562</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.002969503807649339</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.158111377698225</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.15958470502352</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.02977891929428673</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.02945833050369127</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.4039454415413457</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1157882493279642</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9735608685338482</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.08606206774749578</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.07089314470713635</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8737539624306323</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1278396211841579</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.02974835730103239</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1106944471536045</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1118174901467814</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.07156850062553265</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.07140156389057639</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1370927029701478</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1380049482812514</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.07450024909517464</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.07418005674402038</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.09197245693798672</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.149591192997213</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.8063200534153434</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.6144046186041705</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.4738226081828076</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.02853630728950319</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1278396211841579</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.2327006058487736</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.06255507903668872</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.06284405904924231</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.4979056808967582</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.4983822646221236</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>-0.01239128383891689</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>-0.01222144373541856</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.4835222094564943</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.4839758370431653</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1820229344240246</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.1404156105790774</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.07976311807737001</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.2178688990355343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>-0.0877784581481935</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.04203957114148888</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.02974835730103239</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.2327006058487736</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.07339950468788532</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.07405760308614831</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.645042889045516</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.6480022237110677</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>0.004439794782452784</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>0.004357476078287505</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.631010904396488</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.6338416908200839</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1420213828062334</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.06115458627526373</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.06312990205271095</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.02898360999002619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.1413188072818905</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.1145392421952781</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1106944471536045</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.06255507903668872</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.07339950468788532</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999664377548835</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1501198933438798</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1501933262430813</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>0.006611574173732634</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>0.00678522401250286</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1578139690009935</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1578647915302367</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.0414644344638057</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.06595586983738046</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.1125105531258675</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02886178330925682</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.1411387404147719</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.1157288464566939</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1118174901467814</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.06284405904924231</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.07405760308614831</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999664377548835</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1503695981827252</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1504438338628829</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>0.0064190625820018</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>0.006590152397171205</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1581037126606095</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1581547393350021</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.04177918099119721</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.06619186059729128</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.1136225545304424</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.09575520147626977</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.8178176493473892</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.0032191588521562</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.07156850062553265</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.4979056808967582</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.645042889045516</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1501198933438798</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1503695981827252</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999786234309715</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>-0.09317977666656208</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>-0.09325346108753384</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9615583681267792</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9614440737610799</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.128018526672963</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.07921830391055087</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.04446664602799902</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.09534472790141353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.8155611125267151</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.002969503807649339</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.07140156389057639</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.4983822646221236</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.6480022237110677</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1501933262430813</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1504438338628829</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999786234309715</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>-0.09327229060132533</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>-0.09334636747791006</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9615338961135945</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9614611569583608</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.1282156736014569</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.07945172487639796</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.04475529236330949</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.02898360999002619</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.1194985902080331</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.158111377698225</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1370927029701478</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>-0.01239128383891689</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>0.004439794782452784</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>0.006611574173732634</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>0.0064190625820018</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>-0.09317977666656208</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>-0.09327229060132533</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999664377548835</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1501198933438798</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1501933262430813</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.05675708647826308</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.01053584637303847</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.2098248747775018</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02886178330925682</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.119670411779459</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.15958470502352</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1380049482812514</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>-0.01222144373541856</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>0.004357476078287505</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>0.00678522401250286</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>0.006590152397171205</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>-0.09325346108753384</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>-0.09334636747791006</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999664377548835</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1503695981827252</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1504438338628829</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.05801729591672243</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.01014771319227925</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.2114343914304617</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.09575520147626977</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.7815458385452544</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.02977891929428673</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.07450024909517464</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.4835222094564943</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.631010904396488</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1578139690009935</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1581037126606095</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9615583681267792</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9615338961135945</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1501198933438798</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1503695981827252</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999786234309715</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.07721747783399105</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.07145703974157633</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>0.004104969184567419</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.09534472790141353</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.7792634986594504</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.02945833050369127</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.07418005674402038</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.4839758370431653</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.6338416908200839</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1578647915302367</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1581547393350021</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9614440737610799</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9614611569583608</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1501933262430813</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1504438338628829</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999786234309715</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.07721242938801806</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.0716742358998067</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>0.003807620227187595</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.000187085863569559</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.05992866941501481</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.4039454415413457</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.09197245693798672</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1820229344240246</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1420213828062334</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.0414644344638057</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.04177918099119721</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.128018526672963</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.1282156736014569</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.05675708647826308</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.05801729591672243</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.07721747783399105</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.07721242938801806</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5184158537288276</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.4766482400828074</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.0382377914147085</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.05721343396768132</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1157882493279642</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.149591192997213</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.1404156105790774</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.06115458627526373</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.06595586983738046</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.06619186059729128</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.07921830391055087</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.07945172487639796</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.01053584637303847</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.01014771319227925</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.07145703974157633</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.0716742358998067</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5184158537288276</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.1395317121881704</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.00557542208751489</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.0104236193200804</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9735608685338482</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.8063200534153434</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.07976311807737001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.06312990205271095</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.1125105531258675</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.1136225545304424</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.04446664602799902</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.04475529236330949</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.2098248747775018</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.2114343914304617</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>0.004104969184567419</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>0.003807620227187595</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.4766482400828074</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.1395317121881704</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.2260765938661913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.02977207581182462</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.03411225823312143</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2062888125438758</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.3394755262054013</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.006616488096323554</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.006697438690526731</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.08472997136355703</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.08653069338018743</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.006616488096323554</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.006697438690526731</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.08472997136355703</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.08653069338018743</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.00307626053443403</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>0.04319889104155455</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.008178004296939982</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.2260765938661913</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>0.03015387063473353</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>0.0190365067071042</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>0.02219290074591607</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.6892057781830723</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.07734850578789888</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.07748875446700977</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.4899800786190567</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.4884637789467793</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.07640135705050925</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.07624070595214101</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.4640217558561044</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.4625038344976919</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.01117785936953413</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.03157474213867327</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.01719781009727321</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.02977207581182462</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>0.03015387063473353</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.3598309500890908</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.01691190359003165</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.05684033012249132</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.127275445530381</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.1249779805364358</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.02668485929761293</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.026092594745418</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.04121492706875696</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.04111217350168152</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.01959894434646607</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.01957772090182884</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5675016087070134</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.2253992308360442</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9732360156176426</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.03411225823312143</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>0.0190365067071042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.3598309500890908</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1664928470204939</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>0.0117967241023127</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>-0.008038037239662087</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>-0.007907647477340907</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.0109196428692441</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.01076744845170243</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.04256470552768763</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.04282073129223552</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>-0.000320810052716985</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.0008395770240435308</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5640161245223819</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.08098990244652247</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3531198368364737</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2062888125438758</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>0.02219290074591607</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.01691190359003165</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1664928470204939</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>0.07085423976719357</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.01252724964399704</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.01255366865737472</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.05596933609612936</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.05703478896764934</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.038877419785569</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.0391129388458744</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.06113041910973403</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.06222639328508651</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1319593220106581</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1524099417136172</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.05129650713695914</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.3394755262054013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.6892057781830723</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.05684033012249132</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>0.0117967241023127</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>0.07085423976719357</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05773959864188184</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.0577966215256779</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.293931151753642</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2955185357167514</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06891145258347792</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06846298502250941</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2961088136531183</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.297593472616127</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.03989591743923952</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.02068338276162936</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.03625763757937465</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.006616488096323554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.07734850578789888</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.127275445530381</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>-0.008038037239662087</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.01252724964399704</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05773959864188184</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9998673729225009</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1699637725285274</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1699746245248683</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.02860352877069388</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.02850010090718837</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1633574813009214</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1634779586385867</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1103854233199282</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.04040301869164368</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.1069914815798593</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.006697438690526731</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.07748875446700977</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.1249779805364358</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>-0.007907647477340907</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.01255366865737472</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.0577966215256779</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9998673729225009</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1702105417332072</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1702483938079224</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.0285809084721572</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.02848672236668382</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1637528254090361</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1638986983120957</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1085015474313344</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.039502285965125</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.1048319273272633</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.08472997136355703</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.4899800786190567</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.02668485929761293</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.0109196428692441</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.05596933609612936</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.293931151753642</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1699637725285274</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1702105417332072</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9999095408878875</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.02497312248605876</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.02541212885613858</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9682040387828762</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9679888220920512</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.03325373950041088</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.06653693552059679</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.02093513208154213</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.08653069338018743</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.4884637789467793</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.026092594745418</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.01076744845170243</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.05703478896764934</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2955185357167514</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1699746245248683</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1702483938079224</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9999095408878875</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.02474322759175367</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.02519449001735968</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9680717253745446</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9680302966195039</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.03259524888629436</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.06494787258359526</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.02037545574229128</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.006616488096323554</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.07640135705050925</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.04121492706875696</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.04256470552768763</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.038877419785569</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06891145258347792</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.02860352877069388</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.0285809084721572</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.02497312248605876</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.02474322759175367</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9998673729225009</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1699637725285274</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1699746245248683</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.08888324633724237</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.02483732355073145</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.100782195614708</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.006697438690526731</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.07624070595214101</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.04111217350168152</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.04282073129223552</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.0391129388458744</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06846298502250941</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.02850010090718837</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.02848672236668382</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.02541212885613858</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.02519449001735968</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9998673729225009</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1702105417332072</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1702483938079224</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.0891990697377584</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.0252466981990433</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1012393946737068</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.08472997136355703</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.4640217558561044</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.01959894434646607</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>-0.000320810052716985</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.06113041910973403</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2961088136531183</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1633574813009214</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1637528254090361</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9682040387828762</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9680717253745446</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1699637725285274</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1702105417332072</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9999095408878875</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.01432667942531297</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.06070109525705273</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.003428414959380669</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.08653069338018743</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.4625038344976919</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.01957772090182884</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.0008395770240435308</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.06222639328508651</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.297593472616127</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1634779586385867</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1638986983120957</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9679888220920512</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9680302966195039</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1699746245248683</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1702483938079224</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9999095408878875</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.01381907779186482</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.05901219636430449</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.00340593870950175</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.00307626053443403</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.01117785936953413</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5675016087070134</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5640161245223819</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1319593220106581</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.03989591743923952</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1103854233199282</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1085015474313344</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.03325373950041088</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.03259524888629436</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.08888324633724237</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.0891990697377584</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.01432667942531297</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.01381907779186482</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.2709610015105844</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5497366859831994</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>0.04319889104155455</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.03157474213867327</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.2253992308360442</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.08098990244652247</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1524099417136172</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.02068338276162936</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.04040301869164368</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.039502285965125</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.06653693552059679</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.06494787258359526</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.02483732355073145</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.0252466981990433</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.06070109525705273</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.05901219636430449</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.2709610015105844</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.2385509539744859</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.008178004296939982</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.01719781009727321</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9732360156176426</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3531198368364737</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.05129650713695914</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.03625763757937465</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.1069914815798593</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.1048319273272633</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.02093513208154213</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.02037545574229128</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.100782195614708</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1012393946737068</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.003428414959380669</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.00340593870950175</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5497366859831994</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.2385509539744859</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.07998544830140301</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1215179767649072</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.1217574156288771</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.5474473018641653</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.08771482788047354</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.01268645310341161</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.01243236175115892</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.02724768134616795</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.02642629130694019</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.01268645310341161</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.01243236175115892</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.02724768134616795</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.02642629130694019</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.001273576065774186</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.00828636126697475</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.0005243803223925556</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.07998544830140301</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.05455675861589569</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.05243450192703961</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.240064210300666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9563618384674885</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02575428146783114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02529094592495478</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1195535541135169</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1135329179567308</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02631590417982405</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02666579105829298</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1103344733417053</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1044176001583709</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.00285494070763517</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.001721896289997305</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.008149682943922286</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1215179767649072</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.05455675861589569</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.4926409356447614</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.1145902576780764</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.04631758094271433</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.07553019283534387</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.06806573206887481</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02890186074685129</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02670340783782305</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.0343182072121412</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.04121632637148095</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.01746430948789256</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.01558255034868331</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5039366367571164</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.1985240253707462</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.8669343130394539</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.1217574156288771</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.05243450192703961</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.4926409356447614</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2226907212422293</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.05647897255410912</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.01319485590074883</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.01792614242651028</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01524913704240834</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01637405586888424</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.0488954833714003</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.05326838899564585</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01290302288387657</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01371601638534451</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.5033954977323134</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.09915824312440155</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.4142139137513545</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.5474473018641653</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.240064210300666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.1145902576780764</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2226907212422293</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.2554278718426946</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01250519158815003</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01264229164932161</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.05910103533648883</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.06116844722389553</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.006298150721213345</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.006701681872629067</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.05801689367516808</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.06014317985801875</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1072524765200737</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1135080486021686</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.05470940430067329</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.08771482788047354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9563618384674885</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.04631758094271433</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.05647897255410912</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.2554278718426946</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02743434212866743</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02785688924745774</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.175752851815322</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1811553475124725</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02941285481718027</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.0300224488602764</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1761071360312527</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1815358411250624</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01006879440692052</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.01054056703429197</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.01831521095673594</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.01268645310341161</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02575428146783114</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.07553019283534387</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.01319485590074883</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01250519158815003</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02743434212866743</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9978213500761881</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1769443925899411</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1749583660574769</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.03226206116589862</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.03188392448672543</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1731525270405046</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1715540042684068</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.08947055815163929</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.01911586871660173</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.07283061252801928</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.01243236175115892</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02529094592495478</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.06806573206887481</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.01792614242651028</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01264229164932161</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02785688924745774</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9978213500761881</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1770012961158017</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1757170322050502</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.03151735452623342</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.03133297397846665</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1735886790936618</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1726631084673064</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.08663668253721742</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.01734714102870763</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.0650887733722252</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.02724768134616795</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1195535541135169</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02890186074685129</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01524913704240834</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.05910103533648883</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.175752851815322</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1769443925899411</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1770012961158017</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.998072545328883</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.006879921052236226</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.008042644367986093</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9699244938837681</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9684592127435311</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.04383210354138616</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.04161768798778866</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.03477599649893011</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.02642629130694019</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1135329179567308</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02670340783782305</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01637405586888424</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.06116844722389553</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1811553475124725</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1749583660574769</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1757170322050502</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.998072545328883</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.008309713667849484</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.009515616007563617</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9684692819091529</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9707449034066712</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.04276578114209147</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.04274074722215335</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.03293745777372176</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.01268645310341161</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02631590417982405</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.0343182072121412</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.0488954833714003</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.006298150721213345</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02941285481718027</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.03226206116589862</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.03151735452623342</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.006879921052236226</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.008309713667849484</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9978213500761881</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1769443925899411</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1749583660574769</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.01560988210186843</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.003430948115258702</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.05046840568847055</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.01243236175115892</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02666579105829298</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.04121632637148095</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.05326838899564585</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.006701681872629067</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.0300224488602764</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.03188392448672543</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.03133297397846665</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.008042644367986093</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.009515616007563617</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9978213500761881</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1770012961158017</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1757170322050502</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.01300425748345338</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.002161736002155789</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.05463143781680358</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.02724768134616795</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1103344733417053</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.01746430948789256</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01290302288387657</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.05801689367516808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1761071360312527</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1731525270405046</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1735886790936618</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9699244938837681</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9684692819091529</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1769443925899411</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1770012961158017</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.998072545328883</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.03031877401830375</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.04096485022477212</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.02166984996682976</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.02642629130694019</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1044176001583709</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.01558255034868331</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01371601638534451</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.06014317985801875</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1815358411250624</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1715540042684068</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1726631084673064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9684592127435311</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9707449034066712</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1749583660574769</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1757170322050502</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.998072545328883</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02923585095176195</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.0420264641932297</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.02061479824858521</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.001273576065774186</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.00285494070763517</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5039366367571164</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.5033954977323134</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1072524765200737</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01006879440692052</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.08947055815163929</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.08663668253721742</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.04383210354138616</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.04276578114209147</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.01560988210186843</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.01300425748345338</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.03031877401830375</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02923585095176195</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.2955334919863607</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4496573419769667</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.00828636126697475</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.001721896289997305</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.1985240253707462</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.09915824312440155</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1135080486021686</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.01054056703429197</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.01911586871660173</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.01734714102870763</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.04161768798778866</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.04274074722215335</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.003430948115258702</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.002161736002155789</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.04096485022477212</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.0420264641932297</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.2955334919863607</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2372637126529593</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.0005243803223925556</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.008149682943922286</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.8669343130394539</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.4142139137513545</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.05470940430067329</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.01831521095673594</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.07283061252801928</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.0650887733722252</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.03477599649893011</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.03293745777372176</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.05046840568847055</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.05463143781680358</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.02166984996682976</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.02061479824858521</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4496573419769667</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2372637126529593</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
